--- a/MatlabCode/VG_failTT.xlsx
+++ b/MatlabCode/VG_failTT.xlsx
@@ -13,7 +13,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+  <si>
+    <t>failFilePath</t>
+  </si>
+  <si>
+    <t>\\storage1.ris.wustl.edu\taehokim\Active\Lab\VR_VG_Pancreas_Ben\DoseQA\DoseQA_15_VG_nVG\VG\12VG\Pancreas_final_09282020</t>
+  </si>
+  <si>
+    <t>\\storage1.ris.wustl.edu\taehokim\Active\Lab\VR_VG_Pancreas_Ben\DoseQA\DoseQA_15_VG_nVG\VG\15VG\Pancreas_Final</t>
+  </si>
+  <si>
+    <t>\\storage1.ris.wustl.edu\taehokim\Active\Lab\VR_VG_Pancreas_Ben\DoseQA\DoseQA_15_VG_nVG\VG\3VG\Pancreas_F1</t>
+  </si>
+  <si>
+    <t>\\storage1.ris.wustl.edu\taehokim\Active\Lab\VR_VG_Pancreas_Ben\DoseQA\DoseQA_15_VG_nVG\VG\3VG\Pancreas_F2</t>
+  </si>
+  <si>
+    <t>\\storage1.ris.wustl.edu\taehokim\Active\Lab\VR_VG_Pancreas_Ben\DoseQA\DoseQA_15_VG_nVG\VG\3VG\Pancreas_F4</t>
+  </si>
+  <si>
+    <t>\\storage1.ris.wustl.edu\taehokim\Active\Lab\VR_VG_Pancreas_Ben\DoseQA\DoseQA_15_VG_nVG\VG\4VG\Pancreas_F4</t>
+  </si>
+  <si>
+    <t>\\storage1.ris.wustl.edu\taehokim\Active\Lab\VR_VG_Pancreas_Ben\DoseQA\DoseQA_15_VG_nVG\VG\4VG\Pancreas_F5</t>
+  </si>
+  <si>
+    <t>\\storage1.ris.wustl.edu\taehokim\Active\Lab\VR_VG_Pancreas_Ben\DoseQA\DoseQA_15_VG_nVG\VG\5VG\Pancreas_F1</t>
+  </si>
+  <si>
+    <t>\\storage1.ris.wustl.edu\taehokim\Active\Lab\VR_VG_Pancreas_Ben\DoseQA\DoseQA_15_VG_nVG\VG\5VG\Pancreas_F3</t>
+  </si>
+  <si>
+    <t>\\storage1.ris.wustl.edu\taehokim\Active\Lab\VR_VG_Pancreas_Ben\DoseQA\DoseQA_15_VG_nVG\VG\5VG\Pancreas_F4</t>
+  </si>
+  <si>
+    <t>\\storage1.ris.wustl.edu\taehokim\Active\Lab\VR_VG_Pancreas_Ben\DoseQA\DoseQA_15_VG_nVG\VG\7VG\Pancreas_F2</t>
+  </si>
+  <si>
+    <t>\\storage1.ris.wustl.edu\taehokim\Active\Lab\VR_VG_Pancreas_Ben\DoseQA\DoseQA_15_VG_nVG\VG\7VG\Pancreas_F4</t>
+  </si>
+  <si>
+    <t>\\storage1.ris.wustl.edu\taehokim\Active\Lab\VR_VG_Pancreas_Ben\DoseQA\DoseQA_15_VG_nVG\VG\9VG\Pancreas_F4</t>
+  </si>
+  <si>
+    <t>failFileName</t>
+  </si>
+  <si>
+    <t>RTSTRUCT2.16.840.1.114493.1.4.202.7.20200928114122483</t>
+  </si>
+  <si>
+    <t>RTSTRUCT2.16.840.1.114493.1.4.202.6.20201028140928040</t>
+  </si>
+  <si>
+    <t>RTSTRUCT2.16.840.1.114493.1.4.202.3.20200727113058813</t>
+  </si>
+  <si>
+    <t>RTSTRUCT2.16.840.1.114493.1.4.202.3.20200728111136223</t>
+  </si>
+  <si>
+    <t>RTSTRUCT2.16.840.1.114493.1.4.202.3.20200730093010913</t>
+  </si>
+  <si>
+    <t>RTSTRUCT2.16.840.1.114493.1.4.202.3.20200723124620887</t>
+  </si>
+  <si>
+    <t>RTSTRUCT2.16.840.1.114493.1.4.202.3.20200724115308723</t>
+  </si>
+  <si>
+    <t>RTSTRUCT2.16.840.1.114493.1.4.202.3.20200811140237553</t>
+  </si>
+  <si>
+    <t>RTSTRUCT2.16.840.1.114493.1.4.202.3.20200813135130087</t>
+  </si>
+  <si>
+    <t>RTSTRUCT2.16.840.1.114493.1.4.202.3.20200814102705130</t>
+  </si>
+  <si>
+    <t>RTSTRUCT2.16.840.1.114493.1.4.202.3.20200819091059860</t>
+  </si>
+  <si>
+    <t>RTSTRUCT2.16.840.1.114493.1.4.202.3.20200821094402093</t>
+  </si>
+  <si>
+    <t>RTSTRUCT2.16.840.1.114493.1.4.202.3.20200910080619127</t>
+  </si>
+  <si>
+    <t>failReason</t>
+  </si>
+  <si>
+    <t>File size too large</t>
+  </si>
+  <si>
+    <t>failMatFileName</t>
+  </si>
+  <si>
+    <t>X:\Lab\Zhen\MRStructure\matData2\VG\12VG\SS_Pancreas_final_09282020.mat</t>
+  </si>
+  <si>
+    <t>X:\Lab\Zhen\MRStructure\matData2\VG\15VG\SS_Pancreas_Final.mat</t>
+  </si>
+  <si>
+    <t>X:\Lab\Zhen\MRStructure\matData2\VG\3VG\SS_Pancreas_F1.mat</t>
+  </si>
+  <si>
+    <t>X:\Lab\Zhen\MRStructure\matData2\VG\3VG\SS_Pancreas_F2.mat</t>
+  </si>
+  <si>
+    <t>X:\Lab\Zhen\MRStructure\matData2\VG\3VG\SS_Pancreas_F4.mat</t>
+  </si>
+  <si>
+    <t>X:\Lab\Zhen\MRStructure\matData2\VG\4VG\SS_Pancreas_F4.mat</t>
+  </si>
+  <si>
+    <t>X:\Lab\Zhen\MRStructure\matData2\VG\4VG\SS_Pancreas_F5.mat</t>
+  </si>
+  <si>
+    <t>X:\Lab\Zhen\MRStructure\matData2\VG\5VG\SS_Pancreas_F1.mat</t>
+  </si>
+  <si>
+    <t>X:\Lab\Zhen\MRStructure\matData2\VG\5VG\SS_Pancreas_F3.mat</t>
+  </si>
+  <si>
+    <t>X:\Lab\Zhen\MRStructure\matData2\VG\5VG\SS_Pancreas_F4.mat</t>
+  </si>
+  <si>
+    <t>X:\Lab\Zhen\MRStructure\matData2\VG\7VG\SS_Pancreas_F2.mat</t>
+  </si>
+  <si>
+    <t>X:\Lab\Zhen\MRStructure\matData2\VG\7VG\SS_Pancreas_F4.mat</t>
+  </si>
+  <si>
+    <t>X:\Lab\Zhen\MRStructure\matData2\VG\9VG\SS_Pancreas_F4.mat</t>
+  </si>
   <si>
     <t>failFilePath</t>
   </si>
@@ -165,7 +297,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,13 +306,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,198 +335,198 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
